--- a/Fase 2/Sprints/Sprint 3/Burndown Chart Sprint 3.xlsx
+++ b/Fase 2/Sprints/Sprint 3/Burndown Chart Sprint 3.xlsx
@@ -217,11 +217,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="924412643"/>
-        <c:axId val="1262937735"/>
+        <c:axId val="1296879451"/>
+        <c:axId val="396398770"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="924412643"/>
+        <c:axId val="1296879451"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -273,10 +273,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1262937735"/>
+        <c:crossAx val="396398770"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1262937735"/>
+        <c:axId val="396398770"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -351,7 +351,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="924412643"/>
+        <c:crossAx val="1296879451"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -775,7 +775,7 @@
         <v>42.9</v>
       </c>
       <c r="D13" s="11">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="14">
@@ -788,9 +788,11 @@
       </c>
       <c r="C14" s="12">
         <f t="shared" si="2"/>
-        <v>42.9</v>
-      </c>
-      <c r="D14" s="11"/>
+        <v>36.9</v>
+      </c>
+      <c r="D14" s="11">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="9">
@@ -802,7 +804,7 @@
       </c>
       <c r="C15" s="12">
         <f t="shared" si="2"/>
-        <v>42.9</v>
+        <v>29.9</v>
       </c>
       <c r="D15" s="11"/>
     </row>
@@ -816,7 +818,7 @@
       </c>
       <c r="C16" s="12">
         <f t="shared" si="2"/>
-        <v>42.9</v>
+        <v>29.9</v>
       </c>
       <c r="D16" s="11"/>
     </row>
@@ -830,7 +832,7 @@
       </c>
       <c r="C17" s="12">
         <f t="shared" si="2"/>
-        <v>42.9</v>
+        <v>29.9</v>
       </c>
       <c r="D17" s="11"/>
     </row>
@@ -844,7 +846,7 @@
       </c>
       <c r="C18" s="12">
         <f t="shared" si="2"/>
-        <v>42.9</v>
+        <v>29.9</v>
       </c>
       <c r="D18" s="11"/>
     </row>
@@ -858,7 +860,7 @@
       </c>
       <c r="C19" s="12">
         <f t="shared" si="2"/>
-        <v>42.9</v>
+        <v>29.9</v>
       </c>
       <c r="D19" s="11"/>
     </row>
@@ -872,7 +874,7 @@
       </c>
       <c r="C20" s="12">
         <f t="shared" si="2"/>
-        <v>42.9</v>
+        <v>29.9</v>
       </c>
       <c r="D20" s="11"/>
     </row>

--- a/Fase 2/Sprints/Sprint 3/Burndown Chart Sprint 3.xlsx
+++ b/Fase 2/Sprints/Sprint 3/Burndown Chart Sprint 3.xlsx
@@ -223,11 +223,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="395756844"/>
-        <c:axId val="2105171661"/>
+        <c:axId val="331330002"/>
+        <c:axId val="1291155673"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="395756844"/>
+        <c:axId val="331330002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -279,10 +279,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2105171661"/>
+        <c:crossAx val="1291155673"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2105171661"/>
+        <c:axId val="1291155673"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -357,7 +357,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395756844"/>
+        <c:crossAx val="331330002"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
